--- a/work/翻盘.xlsx
+++ b/work/翻盘.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13065"/>
+    <workbookView windowWidth="28695" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46">
   <si>
     <t>提醒翻盘当日翻盘无效</t>
   </si>
@@ -143,6 +143,15 @@
   </si>
   <si>
     <t>FY-17-341706</t>
+  </si>
+  <si>
+    <t>赵玉凤</t>
+  </si>
+  <si>
+    <t>曹洪生</t>
+  </si>
+  <si>
+    <t>FY-17-348288</t>
   </si>
 </sst>
 </file>
@@ -150,12 +159,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,6 +180,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -181,26 +191,34 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -208,15 +226,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -230,30 +240,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -267,6 +256,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -275,54 +293,53 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -331,25 +348,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -361,162 +534,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -540,17 +563,87 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -560,15 +653,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -605,6 +689,30 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -613,30 +721,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -645,10 +729,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -657,137 +741,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -797,13 +881,40 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -896,7 +1007,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="6238875" y="457200"/>
+              <a:off x="6238875" y="1003300"/>
               <a:ext cx="914400" cy="228600"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1174,7 +1285,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1188,7 +1299,7 @@
     <col min="8" max="8" width="19.125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22.5" spans="1:8">
+    <row r="1" ht="44" customHeight="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1200,7 +1311,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" ht="35" customHeight="1" spans="1:8">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1226,228 +1337,251 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" ht="21" customHeight="1" spans="1:8">
+    <row r="3" ht="33" customHeight="1" spans="1:8">
       <c r="A3" s="4">
         <v>42896</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="5">
         <v>13323262132</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3" t="s">
+      <c r="D3" s="5"/>
+      <c r="E3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="3" t="s">
+      <c r="F3" s="5"/>
+      <c r="G3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" ht="18" customHeight="1" spans="1:8">
+    <row r="4" ht="33" customHeight="1" spans="1:8">
       <c r="A4" s="4">
         <v>42904</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3" t="s">
+      <c r="C4" s="5"/>
+      <c r="D4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="3" t="s">
+      <c r="G4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" ht="33" customHeight="1" spans="1:8">
       <c r="A5" s="4">
         <v>42904</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3" t="s">
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="3" t="s">
+      <c r="G5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" ht="33" customHeight="1" spans="1:8">
       <c r="A6" s="4">
         <v>42904</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="5">
         <v>13398691515</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3" t="s">
+      <c r="D6" s="5"/>
+      <c r="E6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="3" t="s">
+      <c r="G6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" ht="33" customHeight="1" spans="1:8">
       <c r="A7" s="4">
         <v>42905</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3" t="s">
+      <c r="C7" s="5"/>
+      <c r="D7" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="3" t="s">
+      <c r="G7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" ht="33" customHeight="1" spans="1:8">
       <c r="A8" s="4">
         <v>42907</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="5">
         <v>18768525413</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" ht="33" customHeight="1" spans="1:8">
       <c r="A9" s="4">
         <v>42907</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="5">
         <v>18732704831</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" ht="33" customHeight="1" spans="1:8">
       <c r="A10" s="4">
         <v>42907</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="5" t="s">
         <v>35</v>
       </c>
       <c r="C10" s="1">
         <v>13833622435</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="3" t="s">
+      <c r="G10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="5">
+    <row r="11" ht="33" customHeight="1" spans="1:8">
+      <c r="A11" s="7">
         <v>42907</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="6">
         <v>15731615339</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="G11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11" s="3" t="s">
+      <c r="G11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="6:6">
-      <c r="F12" s="3"/>
+    <row r="12" ht="33" customHeight="1" spans="1:8">
+      <c r="A12" s="10">
+        <v>42908</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="11">
+        <v>15318578920</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/work/翻盘.xlsx
+++ b/work/翻盘.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50">
   <si>
     <t>提醒翻盘当日翻盘无效</t>
   </si>
@@ -152,6 +152,18 @@
   </si>
   <si>
     <t>FY-17-348288</t>
+  </si>
+  <si>
+    <t>籍红利</t>
+  </si>
+  <si>
+    <t>袁立波</t>
+  </si>
+  <si>
+    <t>缺少卫生间和厨房图片</t>
+  </si>
+  <si>
+    <t>FY-17-349702</t>
   </si>
 </sst>
 </file>
@@ -225,8 +237,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -240,100 +276,76 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -372,174 +384,174 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -557,6 +569,19 @@
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -599,32 +624,6 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -658,6 +657,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -672,17 +686,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -710,17 +720,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -729,10 +728,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -741,147 +740,147 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -890,31 +889,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="58" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1282,10 +1272,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="A1" sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1337,7 +1327,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" ht="33" customHeight="1" spans="1:8">
+    <row r="3" ht="20" customHeight="1" spans="1:8">
       <c r="A3" s="4">
         <v>42896</v>
       </c>
@@ -1359,7 +1349,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" ht="33" customHeight="1" spans="1:8">
+    <row r="4" ht="20" customHeight="1" spans="1:8">
       <c r="A4" s="4">
         <v>42904</v>
       </c>
@@ -1383,7 +1373,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" ht="33" customHeight="1" spans="1:8">
+    <row r="5" ht="20" customHeight="1" spans="1:8">
       <c r="A5" s="4">
         <v>42904</v>
       </c>
@@ -1405,7 +1395,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" ht="33" customHeight="1" spans="1:8">
+    <row r="6" ht="20" customHeight="1" spans="1:8">
       <c r="A6" s="4">
         <v>42904</v>
       </c>
@@ -1429,7 +1419,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" ht="33" customHeight="1" spans="1:8">
+    <row r="7" ht="20" customHeight="1" spans="1:8">
       <c r="A7" s="4">
         <v>42905</v>
       </c>
@@ -1453,7 +1443,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" ht="33" customHeight="1" spans="1:8">
+    <row r="8" ht="20" customHeight="1" spans="1:8">
       <c r="A8" s="4">
         <v>42907</v>
       </c>
@@ -1479,7 +1469,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" ht="33" customHeight="1" spans="1:8">
+    <row r="9" ht="20" customHeight="1" spans="1:8">
       <c r="A9" s="4">
         <v>42907</v>
       </c>
@@ -1505,7 +1495,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" ht="33" customHeight="1" spans="1:8">
+    <row r="10" ht="20" customHeight="1" spans="1:8">
       <c r="A10" s="4">
         <v>42907</v>
       </c>
@@ -1531,7 +1521,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" ht="33" customHeight="1" spans="1:8">
+    <row r="11" ht="20" customHeight="1" spans="1:8">
       <c r="A11" s="7">
         <v>42907</v>
       </c>
@@ -1557,29 +1547,55 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" ht="33" customHeight="1" spans="1:8">
-      <c r="A12" s="10">
+    <row r="12" ht="20" customHeight="1" spans="1:8">
+      <c r="A12" s="7">
         <v>42908</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="6">
         <v>15318578920</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="F12" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="G12" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="H12" s="14" t="s">
+      <c r="G12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" ht="20" customHeight="1" spans="1:8">
+      <c r="A13" s="10">
+        <v>42910</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="11">
+        <v>17731606283</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="11" t="s">
         <v>11</v>
       </c>
     </row>

--- a/work/翻盘.xlsx
+++ b/work/翻盘.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13065"/>
+    <workbookView windowWidth="28080" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58">
   <si>
     <t>提醒翻盘当日翻盘无效</t>
   </si>
@@ -164,6 +164,30 @@
   </si>
   <si>
     <t>FY-17-349702</t>
+  </si>
+  <si>
+    <t>王贵全</t>
+  </si>
+  <si>
+    <t>张秀梅</t>
+  </si>
+  <si>
+    <t>图片带有58水印</t>
+  </si>
+  <si>
+    <t>FY-17-299066</t>
+  </si>
+  <si>
+    <t>刘丽春</t>
+  </si>
+  <si>
+    <t>蔡悍强</t>
+  </si>
+  <si>
+    <t>说少一个我是图片，实际不少</t>
+  </si>
+  <si>
+    <t>FY-17-238784</t>
   </si>
 </sst>
 </file>
@@ -171,10 +195,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -207,23 +231,77 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,7 +317,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -253,6 +331,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -262,90 +355,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -366,6 +390,72 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -378,25 +468,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -408,150 +564,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="14">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -582,44 +606,31 @@
         <color auto="1"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color auto="1"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
+      <left/>
       <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -634,39 +645,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -706,17 +684,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -728,10 +715,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -740,171 +727,177 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1272,10 +1265,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:H1"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1283,241 +1276,241 @@
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="3" width="19.125" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23" style="2" customWidth="1"/>
     <col min="6" max="6" width="17.75" style="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="1"/>
     <col min="8" max="8" width="19.125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="44" customHeight="1" spans="1:8">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
     </row>
     <row r="2" ht="35" customHeight="1" spans="1:8">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" ht="20" customHeight="1" spans="1:8">
-      <c r="A3" s="4">
+      <c r="A3" s="7">
         <v>42896</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="8">
         <v>13323262132</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5" t="s">
+      <c r="D3" s="8"/>
+      <c r="E3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="5" t="s">
+      <c r="F3" s="8"/>
+      <c r="G3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1" spans="1:8">
-      <c r="A4" s="4">
+      <c r="A4" s="7">
         <v>42904</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5" t="s">
+      <c r="C4" s="8"/>
+      <c r="D4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="5" t="s">
+      <c r="G4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" ht="20" customHeight="1" spans="1:8">
-      <c r="A5" s="4">
+      <c r="A5" s="7">
         <v>42904</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5" t="s">
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="5" t="s">
+      <c r="G5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1" spans="1:8">
-      <c r="A6" s="4">
+      <c r="A6" s="7">
         <v>42904</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="8">
         <v>13398691515</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5" t="s">
+      <c r="D6" s="8"/>
+      <c r="E6" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="5" t="s">
+      <c r="G6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" ht="20" customHeight="1" spans="1:8">
-      <c r="A7" s="4">
+      <c r="A7" s="7">
         <v>42905</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5" t="s">
+      <c r="C7" s="8"/>
+      <c r="D7" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="5" t="s">
+      <c r="G7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" ht="20" customHeight="1" spans="1:8">
-      <c r="A8" s="4">
+      <c r="A8" s="7">
         <v>42907</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="8">
         <v>18768525413</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" ht="20" customHeight="1" spans="1:8">
-      <c r="A9" s="4">
+      <c r="A9" s="7">
         <v>42907</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="8">
         <v>18732704831</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" ht="20" customHeight="1" spans="1:8">
-      <c r="A10" s="4">
+      <c r="A10" s="7">
         <v>42907</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="10">
         <v>13833622435</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="G10" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="5" t="s">
+      <c r="G10" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="8" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1525,25 +1518,25 @@
       <c r="A11" s="7">
         <v>42907</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="8">
         <v>15731615339</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="9" t="s">
         <v>41</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="G11" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11" s="9" t="s">
+      <c r="G11" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="8" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1551,51 +1544,103 @@
       <c r="A12" s="7">
         <v>42908</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="8">
         <v>15318578920</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="9" t="s">
         <v>41</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="G12" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H12" s="9" t="s">
+      <c r="G12" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" ht="20" customHeight="1" spans="1:8">
-      <c r="A13" s="10">
+      <c r="A13" s="7">
         <v>42910</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="8">
         <v>17731606283</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="F13" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="G13" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13" s="11" t="s">
+      <c r="G13" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="11">
+        <v>42912</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="10">
+        <v>15369646661</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" ht="28" customHeight="1" spans="1:8">
+      <c r="A15" s="11">
+        <v>42912</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="10">
+        <v>15632603626</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="10" t="s">
         <v>11</v>
       </c>
     </row>

--- a/work/翻盘.xlsx
+++ b/work/翻盘.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61">
   <si>
     <t>提醒翻盘当日翻盘无效</t>
   </si>
@@ -188,6 +188,26 @@
   </si>
   <si>
     <t>FY-17-238784</t>
+  </si>
+  <si>
+    <t>魏名桃</t>
+  </si>
+  <si>
+    <r>
+      <t>孙明慧</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>FY-17-351030</t>
   </si>
 </sst>
 </file>
@@ -200,7 +220,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -374,6 +394,12 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -575,7 +601,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -606,6 +632,19 @@
         <color auto="1"/>
       </right>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -718,7 +757,7 @@
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -748,7 +787,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -766,28 +805,28 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -796,10 +835,10 @@
     <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -857,8 +896,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -888,17 +930,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1265,356 +1316,356 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="3" width="19.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="1"/>
-    <col min="8" max="8" width="19.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="3" width="19.125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="23" style="3" customWidth="1"/>
+    <col min="6" max="6" width="17.75" style="2" customWidth="1"/>
+    <col min="7" max="7" width="9" style="2"/>
+    <col min="8" max="8" width="19.125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="44" customHeight="1" spans="1:8">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
     </row>
     <row r="2" ht="35" customHeight="1" spans="1:8">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" ht="20" customHeight="1" spans="1:8">
-      <c r="A3" s="7">
+      <c r="A3" s="8">
         <v>42896</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="9">
         <v>13323262132</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="9" t="s">
+      <c r="D3" s="9"/>
+      <c r="E3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="8" t="s">
+      <c r="F3" s="9"/>
+      <c r="G3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1" spans="1:8">
-      <c r="A4" s="7">
+      <c r="A4" s="8">
         <v>42904</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8" t="s">
+      <c r="C4" s="9"/>
+      <c r="D4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="8" t="s">
+      <c r="G4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" ht="20" customHeight="1" spans="1:8">
-      <c r="A5" s="7">
+      <c r="A5" s="8">
         <v>42904</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="9" t="s">
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="8" t="s">
+      <c r="G5" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1" spans="1:8">
-      <c r="A6" s="7">
+      <c r="A6" s="8">
         <v>42904</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="9">
         <v>13398691515</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="9" t="s">
+      <c r="D6" s="9"/>
+      <c r="E6" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="8" t="s">
+      <c r="G6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" ht="20" customHeight="1" spans="1:8">
-      <c r="A7" s="7">
+      <c r="A7" s="8">
         <v>42905</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8" t="s">
+      <c r="C7" s="9"/>
+      <c r="D7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="8" t="s">
+      <c r="G7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" ht="20" customHeight="1" spans="1:8">
-      <c r="A8" s="7">
+      <c r="A8" s="8">
         <v>42907</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="9">
         <v>18768525413</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" ht="20" customHeight="1" spans="1:8">
-      <c r="A9" s="7">
+      <c r="A9" s="8">
         <v>42907</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="9">
         <v>18732704831</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="H9" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" ht="20" customHeight="1" spans="1:8">
-      <c r="A10" s="7">
+      <c r="A10" s="8">
         <v>42907</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="9">
         <v>13833622435</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="G10" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="8" t="s">
+      <c r="G10" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" ht="20" customHeight="1" spans="1:8">
-      <c r="A11" s="7">
+      <c r="A11" s="8">
         <v>42907</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="9">
         <v>15731615339</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="G11" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11" s="8" t="s">
+      <c r="G11" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" ht="20" customHeight="1" spans="1:8">
-      <c r="A12" s="7">
+      <c r="A12" s="8">
         <v>42908</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="9">
         <v>15318578920</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="G12" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H12" s="8" t="s">
+      <c r="G12" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" ht="20" customHeight="1" spans="1:8">
-      <c r="A13" s="7">
+      <c r="A13" s="8">
         <v>42910</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="9">
         <v>17731606283</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="G13" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13" s="8" t="s">
+      <c r="G13" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="11">
+      <c r="A14" s="8">
         <v>42912</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="9">
         <v>15369646661</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="G14" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H14" s="10" t="s">
+      <c r="G14" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="9" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1622,25 +1673,51 @@
       <c r="A15" s="11">
         <v>42912</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="12">
         <v>15632603626</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="G15" s="10" t="s">
+      <c r="G15" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="H15" s="10" t="s">
+      <c r="H15" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" spans="1:8">
+      <c r="A16" s="14">
+        <v>42913</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="16">
+        <v>18301190118</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="16" t="s">
         <v>11</v>
       </c>
     </row>

--- a/work/翻盘.xlsx
+++ b/work/翻盘.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69">
   <si>
     <t>提醒翻盘当日翻盘无效</t>
   </si>
@@ -61,7 +61,7 @@
     <t>图片数量不够</t>
   </si>
   <si>
-    <t>fy-17-138126</t>
+    <t>FY-17-138126</t>
   </si>
   <si>
     <t>丰浩</t>
@@ -194,6 +194,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>孙明慧</t>
     </r>
     <r>
@@ -209,6 +215,30 @@
   <si>
     <t>FY-17-351030</t>
   </si>
+  <si>
+    <t>李金旺</t>
+  </si>
+  <si>
+    <t>张鹏</t>
+  </si>
+  <si>
+    <t>实勘缺少户型图</t>
+  </si>
+  <si>
+    <t>FY-17-349576</t>
+  </si>
+  <si>
+    <t>籍红莉</t>
+  </si>
+  <si>
+    <t>何凌云</t>
+  </si>
+  <si>
+    <t>户型图错误</t>
+  </si>
+  <si>
+    <t>FY-16-225459</t>
+  </si>
 </sst>
 </file>
 
@@ -216,11 +246,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -393,6 +423,12 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -896,11 +932,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -939,13 +975,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="58" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1316,10 +1361,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1696,28 +1741,78 @@
       </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:8">
-      <c r="A16" s="14">
+      <c r="A16" s="8">
         <v>42913</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C16" s="16">
+      <c r="C16" s="9">
         <v>18301190118</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="E16" s="17" t="s">
+      <c r="E16" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="16" t="s">
+      <c r="F16" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="G16" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="H16" s="16" t="s">
+      <c r="G16" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="14">
+        <v>42915</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="15">
+        <v>13323260272</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="17">
+        <v>42916</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="18">
+        <v>18632650037</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18" t="s">
         <v>11</v>
       </c>
     </row>

--- a/work/翻盘.xlsx
+++ b/work/翻盘.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13065"/>
+    <workbookView windowWidth="28695" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76">
   <si>
     <t>提醒翻盘当日翻盘无效</t>
   </si>
@@ -239,14 +239,35 @@
   <si>
     <t>FY-16-225459</t>
   </si>
+  <si>
+    <t>王增喜</t>
+  </si>
+  <si>
+    <t>包传凯</t>
+  </si>
+  <si>
+    <t>缺少卫生间实勘</t>
+  </si>
+  <si>
+    <t>FY-17-321307</t>
+  </si>
+  <si>
+    <t>李华</t>
+  </si>
+  <si>
+    <t>李贺忠</t>
+  </si>
+  <si>
+    <t>FY-17-305436</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -288,6 +309,82 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -296,6 +393,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -304,67 +424,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -373,17 +432,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -397,35 +447,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -452,187 +473,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -685,26 +706,32 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -724,17 +751,44 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -749,39 +803,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -790,149 +811,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -984,17 +1005,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="58" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1361,10 +1373,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1793,26 +1807,80 @@
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="17">
+      <c r="A18" s="11">
         <v>42916</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="18">
+      <c r="C18" s="12">
         <v>18632650037</v>
       </c>
-      <c r="D18" s="19" t="s">
+      <c r="D18" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="E18" s="20" t="s">
+      <c r="E18" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="F18" s="18" t="s">
+      <c r="F18" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18" t="s">
+      <c r="G18" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="8">
+        <v>42920</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" s="9">
+        <v>18249252918</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="17">
+        <v>42920</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="17">
+        <v>13393265201</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20" s="17" t="s">
         <v>11</v>
       </c>
     </row>

--- a/work/翻盘.xlsx
+++ b/work/翻盘.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86">
   <si>
     <t>提醒翻盘当日翻盘无效</t>
   </si>
@@ -260,6 +260,53 @@
   <si>
     <t>FY-17-305436</t>
   </si>
+  <si>
+    <t>刘文博</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>吕洋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>不是业主电话，租户电话</t>
+  </si>
+  <si>
+    <t>FY-17-353938</t>
+  </si>
+  <si>
+    <t>苏洪生</t>
+  </si>
+  <si>
+    <t>王娟</t>
+  </si>
+  <si>
+    <t>实勘错误</t>
+  </si>
+  <si>
+    <t>FY-17-353519</t>
+  </si>
+  <si>
+    <t>陈祥育</t>
+  </si>
+  <si>
+    <t>FY-17-349647</t>
+  </si>
 </sst>
 </file>
 
@@ -303,6 +350,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -310,21 +364,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -346,6 +416,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -354,6 +431,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -362,13 +478,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -377,30 +486,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -408,47 +493,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -473,187 +520,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -721,6 +768,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -736,17 +794,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -769,8 +821,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -778,28 +845,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -811,10 +858,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -823,137 +870,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1004,6 +1051,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1373,12 +1426,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
+      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1859,28 +1912,104 @@
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="17">
+      <c r="A20" s="11">
         <v>42920</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="C20" s="17">
+      <c r="C20" s="12">
         <v>13393265201</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="D20" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="E20" s="17" t="s">
+      <c r="E20" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="F20" s="17" t="s">
+      <c r="F20" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="G20" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="H20" s="17" t="s">
+      <c r="G20" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="11">
+        <v>42921</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" s="12">
+        <v>15233694414</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="8">
+        <v>42921</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" s="9">
+        <v>18631488755</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="18">
+        <v>42923</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" s="19">
+        <v>15383866042</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19" t="s">
         <v>11</v>
       </c>
     </row>

--- a/work/翻盘.xlsx
+++ b/work/翻盘.xlsx
@@ -313,12 +313,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -343,7 +343,61 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -357,21 +411,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -393,54 +463,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -454,40 +479,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -526,30 +519,150 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -562,145 +675,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -768,12 +761,25 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -797,23 +803,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -841,15 +843,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -858,10 +851,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -873,134 +866,134 @@
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1053,12 +1046,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1431,7 +1418,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
+      <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1990,26 +1977,26 @@
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="18">
+      <c r="A23" s="8">
         <v>42923</v>
       </c>
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="C23" s="19">
+      <c r="C23" s="9">
         <v>15383866042</v>
       </c>
-      <c r="D23" s="19" t="s">
+      <c r="D23" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="E23" s="19" t="s">
+      <c r="E23" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F23" s="19" t="s">
+      <c r="F23" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19" t="s">
+      <c r="G23" s="9"/>
+      <c r="H23" s="9" t="s">
         <v>11</v>
       </c>
     </row>
